--- a/resources/img/webresources_exemple_sheet.xlsx
+++ b/resources/img/webresources_exemple_sheet.xlsx
@@ -27,7 +27,7 @@
 organisations</t>
   </si>
   <si>
-    <t>http://wikipedia,com</t>
+    <t>https://link.com/, http://link2.com</t>
   </si>
   <si>
     <t>worldwide</t>
@@ -441,7 +441,7 @@
     <col min="1" max="1" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="8" width="29.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="57.14785714285715" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
